--- a/Tarifas.xlsx
+++ b/Tarifas.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Material - Rodrigo\TCC\Programa\Perfil-de-consumo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F9FA6A-F46D-4449-8626-E536227DBCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFA3B7E-3604-4669-A2D3-147A5833AC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2625" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -798,7 +798,7 @@
   <dimension ref="B1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,7 +957,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="6">
-        <v>3.5060000000000001E-2</v>
+        <v>0.524949</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -968,7 +968,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="6">
-        <v>0.34827000000000002</v>
+        <v>1.5748470000000001</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -979,7 +979,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="3">
-        <v>3.94</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1009,7 +1009,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="6">
-        <v>3.5060000000000001E-2</v>
+        <v>0.524949</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -1020,7 +1020,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="6">
-        <v>7.5086E-2</v>
+        <v>1.5748470000000001</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -1031,7 +1031,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="6">
-        <v>3.94</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1042,7 +1042,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="3">
-        <v>11.81</v>
+        <v>14.36</v>
       </c>
     </row>
   </sheetData>
